--- a/DateBase/orders/Dang Nguyen_2024-12-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-18.xlsx
@@ -943,6 +943,9 @@
       <c r="G2" t="str">
         <v>01535272020103047210614327221511517149102424180165103520101104253020327205012341110119683315</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
